--- a/Table/Table_xls/f福利奖励/首充礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/首充礼包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -40,11 +39,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id2对应的礼包</t>
         </r>
       </text>
@@ -54,11 +52,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id3对应的礼包</t>
         </r>
       </text>
@@ -68,11 +65,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id4对应的礼包</t>
         </r>
       </text>
@@ -82,11 +78,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id5对应的礼包</t>
         </r>
       </text>
@@ -96,11 +91,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id6对应的礼包</t>
         </r>
       </text>
@@ -110,11 +104,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id7对应的礼包</t>
         </r>
       </text>
@@ -124,11 +117,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -138,11 +130,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -152,11 +143,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -166,11 +156,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id2对应的礼包</t>
         </r>
       </text>
@@ -180,11 +169,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id3对应的礼包</t>
         </r>
       </text>
@@ -194,11 +182,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id4对应的礼包</t>
         </r>
       </text>
@@ -208,11 +195,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id5对应的礼包</t>
         </r>
       </text>
@@ -222,11 +208,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id6对应的礼包</t>
         </r>
       </text>
@@ -236,11 +221,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id7对应的礼包</t>
         </r>
       </text>
@@ -250,11 +234,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -274,11 +257,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -289,11 +271,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -304,11 +285,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -324,11 +304,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不发
 1-发</t>
         </r>
@@ -339,11 +318,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -354,11 +332,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -371,11 +348,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -387,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -853,9 +829,6 @@
   </si>
   <si>
     <t>标签18</t>
-  </si>
-  <si>
-    <t>900004</t>
   </si>
   <si>
     <t>set:jiangli image:7day</t>
@@ -1348,10 +1321,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1376,27 +1349,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1409,6 +1380,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1423,14 +1409,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1438,7 +1424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,26 +1439,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,18 +1453,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,18 +1476,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -1614,7 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,13 +1604,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,79 +1646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,19 +1670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1688,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,43 +1754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,6 +1795,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1835,17 +1822,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,34 +1834,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,18 +1857,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1922,148 +1900,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2106,13 +2084,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2140,12 +2122,14 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2200,6 +2184,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2526,60 +2515,110 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:DW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="DC2" sqref="DC2"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="7.5" style="10"/>
-    <col min="4" max="4" width="8.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="10"/>
-    <col min="10" max="10" width="8.875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="10"/>
-    <col min="12" max="12" width="8.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="21.875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="10"/>
+    <col min="2" max="2" width="7.66666666666667" style="10"/>
+    <col min="3" max="3" width="7.5" style="10"/>
+    <col min="4" max="4" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.37962962962963" style="10" customWidth="1"/>
+    <col min="6" max="7" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.8796296296296" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.66666666666667" style="10"/>
+    <col min="10" max="10" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="11" max="11" width="7.66666666666667" style="10"/>
+    <col min="12" max="12" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="13" max="13" width="21.8796296296296" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.87962962962963" style="10" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="10"/>
-    <col min="16" max="16" width="8.875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.87962962962963" style="10" customWidth="1"/>
     <col min="17" max="17" width="7.5" style="10"/>
-    <col min="18" max="18" width="8.875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="19" max="19" width="21.8796296296296" style="10" customWidth="1"/>
     <col min="20" max="20" width="7.5" style="10"/>
-    <col min="21" max="22" width="8.875" style="10" customWidth="1"/>
-    <col min="23" max="23" width="7.375" style="10" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="10" customWidth="1"/>
-    <col min="25" max="25" width="21.875" style="10" customWidth="1"/>
+    <col min="21" max="22" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="23" max="23" width="7.37962962962963" style="10" customWidth="1"/>
+    <col min="24" max="24" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="25" max="25" width="21.8796296296296" style="10" customWidth="1"/>
     <col min="26" max="26" width="7.5" style="10"/>
-    <col min="27" max="28" width="8.875" style="10" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="10" customWidth="1"/>
-    <col min="30" max="30" width="8.875" style="10" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="10" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="10"/>
-    <col min="33" max="33" width="8.875" style="10" customWidth="1"/>
+    <col min="27" max="28" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="29" max="29" width="7.37962962962963" style="10" customWidth="1"/>
+    <col min="30" max="30" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="31" max="31" width="21.8796296296296" style="10" customWidth="1"/>
+    <col min="32" max="32" width="7.66666666666667" style="10"/>
+    <col min="33" max="33" width="8.87962962962963" style="10" customWidth="1"/>
     <col min="34" max="34" width="7.5" style="10"/>
-    <col min="35" max="36" width="8.875" style="10" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="10" customWidth="1"/>
-    <col min="38" max="41" width="7.5" style="10"/>
-    <col min="42" max="42" width="8.875" style="10" customWidth="1"/>
-    <col min="43" max="43" width="11.375" style="10" customWidth="1"/>
-    <col min="44" max="16384" width="7.5" style="10"/>
+    <col min="35" max="36" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="37" max="37" width="21.8796296296296" style="10" customWidth="1"/>
+    <col min="38" max="38" width="7.5" style="10"/>
+    <col min="39" max="39" width="7.66666666666667" style="10"/>
+    <col min="40" max="41" width="7.5" style="10"/>
+    <col min="42" max="42" width="8.87962962962963" style="10" customWidth="1"/>
+    <col min="43" max="43" width="11.3796296296296" style="10" customWidth="1"/>
+    <col min="44" max="44" width="7.66666666666667" style="10"/>
+    <col min="45" max="45" width="7.5" style="10"/>
+    <col min="46" max="46" width="7.66666666666667" style="10"/>
+    <col min="47" max="50" width="7.5" style="10"/>
+    <col min="51" max="51" width="7.66666666666667" style="10"/>
+    <col min="52" max="52" width="7.5" style="10"/>
+    <col min="53" max="53" width="7.66666666666667" style="10"/>
+    <col min="54" max="57" width="7.5" style="10"/>
+    <col min="58" max="58" width="7.66666666666667" style="10"/>
+    <col min="59" max="59" width="7.5" style="10"/>
+    <col min="60" max="60" width="7.66666666666667" style="10"/>
+    <col min="61" max="64" width="7.5" style="10"/>
+    <col min="65" max="65" width="7.66666666666667" style="10"/>
+    <col min="66" max="66" width="7.5" style="10"/>
+    <col min="67" max="67" width="7.66666666666667" style="10"/>
+    <col min="68" max="71" width="7.5" style="10"/>
+    <col min="72" max="72" width="7.66666666666667" style="10"/>
+    <col min="73" max="73" width="7.5" style="10"/>
+    <col min="74" max="74" width="7.66666666666667" style="10"/>
+    <col min="75" max="78" width="7.5" style="10"/>
+    <col min="79" max="79" width="7.66666666666667" style="10"/>
+    <col min="80" max="80" width="7.5" style="10"/>
+    <col min="81" max="81" width="7.66666666666667" style="10"/>
+    <col min="82" max="85" width="7.5" style="10"/>
+    <col min="86" max="86" width="7.66666666666667" style="10"/>
+    <col min="87" max="87" width="7.5" style="10"/>
+    <col min="88" max="88" width="7.66666666666667" style="10"/>
+    <col min="89" max="92" width="7.5" style="10"/>
+    <col min="93" max="93" width="7.66666666666667" style="10"/>
+    <col min="94" max="94" width="7.5" style="10"/>
+    <col min="95" max="95" width="7.66666666666667" style="10"/>
+    <col min="96" max="99" width="7.5" style="10"/>
+    <col min="100" max="100" width="7.66666666666667" style="10"/>
+    <col min="101" max="101" width="7.5" style="10"/>
+    <col min="102" max="102" width="7.66666666666667" style="10"/>
+    <col min="103" max="106" width="7.5" style="10"/>
+    <col min="107" max="107" width="7.66666666666667" style="10"/>
+    <col min="108" max="108" width="7.5" style="10"/>
+    <col min="109" max="109" width="7.66666666666667" style="10"/>
+    <col min="110" max="113" width="7.5" style="10"/>
+    <col min="114" max="114" width="7.66666666666667" style="10"/>
+    <col min="115" max="115" width="7.5" style="10"/>
+    <col min="116" max="116" width="7.66666666666667" style="10"/>
+    <col min="117" max="120" width="7.5" style="10"/>
+    <col min="121" max="121" width="7.66666666666667" style="10"/>
+    <col min="122" max="122" width="7.5" style="10"/>
+    <col min="123" max="123" width="7.66666666666667" style="10"/>
+    <col min="124" max="16384" width="7.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:127">
@@ -2969,8 +3008,8 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>127</v>
+      <c r="D2" s="14">
+        <v>888892</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -2981,8 +3020,8 @@
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>127</v>
+      <c r="K2" s="14">
+        <v>888892</v>
       </c>
       <c r="L2" s="13">
         <v>1</v>
@@ -2993,8 +3032,8 @@
       <c r="N2" s="10">
         <v>1</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>127</v>
+      <c r="R2" s="14">
+        <v>888892</v>
       </c>
       <c r="S2" s="13">
         <v>1</v>
@@ -3005,8 +3044,8 @@
       <c r="U2" s="10">
         <v>1</v>
       </c>
-      <c r="Y2" s="14" t="s">
-        <v>127</v>
+      <c r="Y2" s="14">
+        <v>888892</v>
       </c>
       <c r="Z2" s="13">
         <v>1</v>
@@ -3017,8 +3056,8 @@
       <c r="AB2" s="10">
         <v>1</v>
       </c>
-      <c r="AF2" s="14" t="s">
-        <v>127</v>
+      <c r="AF2" s="14">
+        <v>888892</v>
       </c>
       <c r="AG2" s="13">
         <v>1</v>
@@ -3029,8 +3068,8 @@
       <c r="AI2" s="10">
         <v>1</v>
       </c>
-      <c r="AM2" s="14" t="s">
-        <v>127</v>
+      <c r="AM2" s="14">
+        <v>888892</v>
       </c>
       <c r="AN2" s="13">
         <v>1</v>
@@ -3041,8 +3080,8 @@
       <c r="AP2" s="10">
         <v>1</v>
       </c>
-      <c r="AT2" s="14" t="s">
-        <v>127</v>
+      <c r="AT2" s="14">
+        <v>888892</v>
       </c>
       <c r="AU2" s="13">
         <v>1</v>
@@ -3053,8 +3092,8 @@
       <c r="AW2" s="10">
         <v>1</v>
       </c>
-      <c r="BA2" s="14" t="s">
-        <v>127</v>
+      <c r="BA2" s="14">
+        <v>888892</v>
       </c>
       <c r="BB2" s="13">
         <v>1</v>
@@ -3065,8 +3104,8 @@
       <c r="BD2" s="10">
         <v>1</v>
       </c>
-      <c r="BH2" s="14" t="s">
-        <v>127</v>
+      <c r="BH2" s="14">
+        <v>888892</v>
       </c>
       <c r="BI2" s="13">
         <v>1</v>
@@ -3079,8 +3118,8 @@
       </c>
       <c r="BM2" s="25"/>
       <c r="BN2" s="25"/>
-      <c r="BO2" s="26" t="s">
-        <v>127</v>
+      <c r="BO2" s="26">
+        <v>888892</v>
       </c>
       <c r="BP2" s="27">
         <v>1</v>
@@ -3094,8 +3133,8 @@
       <c r="BS2" s="25"/>
       <c r="BT2" s="25"/>
       <c r="BU2" s="25"/>
-      <c r="BV2" s="26" t="s">
-        <v>127</v>
+      <c r="BV2" s="26">
+        <v>888892</v>
       </c>
       <c r="BW2" s="27">
         <v>1</v>
@@ -3109,8 +3148,8 @@
       <c r="BZ2" s="25"/>
       <c r="CA2" s="25"/>
       <c r="CB2" s="25"/>
-      <c r="CC2" s="26" t="s">
-        <v>127</v>
+      <c r="CC2" s="26">
+        <v>888892</v>
       </c>
       <c r="CD2" s="27">
         <v>1</v>
@@ -3124,8 +3163,8 @@
       <c r="CG2" s="25"/>
       <c r="CH2" s="25"/>
       <c r="CI2" s="25"/>
-      <c r="CJ2" s="26" t="s">
-        <v>127</v>
+      <c r="CJ2" s="26">
+        <v>888892</v>
       </c>
       <c r="CK2" s="27">
         <v>1</v>
@@ -3139,8 +3178,8 @@
       <c r="CN2" s="25"/>
       <c r="CO2" s="25"/>
       <c r="CP2" s="25"/>
-      <c r="CQ2" s="26" t="s">
-        <v>127</v>
+      <c r="CQ2" s="26">
+        <v>888892</v>
       </c>
       <c r="CR2" s="27">
         <v>1</v>
@@ -3154,8 +3193,8 @@
       <c r="CU2" s="25"/>
       <c r="CV2" s="25"/>
       <c r="CW2" s="25"/>
-      <c r="CX2" s="26" t="s">
-        <v>127</v>
+      <c r="CX2" s="26">
+        <v>888892</v>
       </c>
       <c r="CY2" s="27">
         <v>1</v>
@@ -3169,8 +3208,8 @@
       <c r="DB2" s="25"/>
       <c r="DC2" s="25"/>
       <c r="DD2" s="25"/>
-      <c r="DE2" s="26" t="s">
-        <v>127</v>
+      <c r="DE2" s="26">
+        <v>888892</v>
       </c>
       <c r="DF2" s="27">
         <v>1</v>
@@ -3184,8 +3223,8 @@
       <c r="DI2" s="25"/>
       <c r="DJ2" s="25"/>
       <c r="DK2" s="25"/>
-      <c r="DL2" s="26" t="s">
-        <v>127</v>
+      <c r="DL2" s="26">
+        <v>888892</v>
       </c>
       <c r="DM2" s="27">
         <v>1</v>
@@ -3199,8 +3238,8 @@
       <c r="DP2" s="25"/>
       <c r="DQ2" s="25"/>
       <c r="DR2" s="25"/>
-      <c r="DS2" s="26" t="s">
-        <v>127</v>
+      <c r="DS2" s="26">
+        <v>888892</v>
       </c>
       <c r="DT2" s="27">
         <v>1</v>
@@ -3496,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" s="15">
         <v>335102</v>
@@ -3511,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P4" s="15">
         <v>335102</v>
@@ -3526,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W4" s="15">
         <v>335102</v>
@@ -3541,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD4" s="15">
         <v>335102</v>
@@ -3556,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK4" s="15">
         <v>335102</v>
@@ -3571,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR4" s="15">
         <v>335102</v>
@@ -3586,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY4" s="15">
         <v>335102</v>
@@ -3601,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF4" s="15">
         <v>335102</v>
@@ -3616,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM4" s="28">
         <v>335102</v>
@@ -3633,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="BS4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BT4" s="28">
         <v>335102</v>
@@ -3650,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CA4" s="28">
         <v>335102</v>
@@ -3667,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="CG4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH4" s="28">
         <v>335102</v>
@@ -3684,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="CN4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CO4" s="28">
         <v>335102</v>
@@ -3701,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="CU4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CV4" s="28">
         <v>335102</v>
@@ -3718,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="DB4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DC4" s="28">
         <v>335102</v>
@@ -3735,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="DI4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DJ4" s="28">
         <v>335102</v>
@@ -3752,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="DP4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DQ4" s="28">
         <v>335102</v>
@@ -3769,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="DW4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:127">
@@ -3777,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -3789,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="J5" s="13">
         <v>1</v>
@@ -3804,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="Q5" s="13">
         <v>1</v>
@@ -3819,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="V5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="X5" s="13">
         <v>1</v>
@@ -3834,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="AE5" s="13">
         <v>1</v>
@@ -3849,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="AK5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="AL5" s="13">
         <v>1</v>
@@ -3864,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="AR5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="AS5" s="13">
         <v>1</v>
@@ -3879,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="AX5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="AY5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="AZ5" s="13">
         <v>1</v>
@@ -3894,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF5" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="BF5" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="BG5" s="13">
         <v>1</v>
@@ -3909,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="BL5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="BM5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="BN5" s="27">
         <v>1</v>
@@ -3926,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="BT5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="BU5" s="27">
         <v>1</v>
@@ -3943,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="CA5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="CB5" s="27">
         <v>1</v>
@@ -3960,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="CG5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="CH5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="CI5" s="27">
         <v>1</v>
@@ -3977,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="CN5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="CO5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="CP5" s="27">
         <v>1</v>
@@ -3994,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="CU5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="CV5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="CW5" s="27">
         <v>1</v>
@@ -4011,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="DB5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="DC5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="DC5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="DD5" s="27">
         <v>1</v>
@@ -4028,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="DI5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="DJ5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="DK5" s="27">
         <v>1</v>
@@ -4045,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="DP5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="DQ5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="DQ5" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="DR5" s="27">
         <v>1</v>
@@ -4062,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="DW5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:127">
@@ -4070,7 +4109,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -4082,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="13">
         <v>2</v>
@@ -4097,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="13">
         <v>2</v>
@@ -4112,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X6" s="13">
         <v>2</v>
@@ -4127,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE6" s="13">
         <v>2</v>
@@ -4142,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL6" s="13">
         <v>2</v>
@@ -4157,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS6" s="13">
         <v>2</v>
@@ -4172,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AZ6" s="13">
         <v>2</v>
@@ -4187,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BG6" s="13">
         <v>2</v>
@@ -4202,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN6" s="27">
         <v>2</v>
@@ -4219,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BT6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BU6" s="27">
         <v>2</v>
@@ -4236,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CA6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CB6" s="27">
         <v>2</v>
@@ -4253,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="CG6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CI6" s="27">
         <v>2</v>
@@ -4270,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="CN6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CO6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CP6" s="27">
         <v>2</v>
@@ -4287,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="CU6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CV6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CW6" s="27">
         <v>2</v>
@@ -4304,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="DB6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DC6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DD6" s="27">
         <v>2</v>
@@ -4321,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="DI6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DJ6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DK6" s="27">
         <v>2</v>
@@ -4338,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="DP6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DQ6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DR6" s="27">
         <v>2</v>
@@ -4355,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="DW6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:127">
@@ -4375,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="15">
         <v>310102</v>
@@ -4390,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="15">
         <v>310102</v>
@@ -4405,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W7" s="15">
         <v>310102</v>
@@ -4420,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD7" s="15">
         <v>310102</v>
@@ -4435,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK7" s="15">
         <v>310102</v>
@@ -4450,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR7" s="15">
         <v>310102</v>
@@ -4465,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY7" s="15">
         <v>310102</v>
@@ -4480,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF7" s="15">
         <v>310102</v>
@@ -4495,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM7" s="28">
         <v>310102</v>
@@ -4512,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BT7" s="28">
         <v>310102</v>
@@ -4529,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CA7" s="28">
         <v>310102</v>
@@ -4546,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="CG7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CH7" s="28">
         <v>310102</v>
@@ -4563,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CO7" s="28">
         <v>310102</v>
@@ -4580,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="CU7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CV7" s="28">
         <v>310102</v>
@@ -4597,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="DB7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DC7" s="28">
         <v>310102</v>
@@ -4614,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="DI7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DJ7" s="28">
         <v>310102</v>
@@ -4631,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="DP7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DQ7" s="28">
         <v>310102</v>
@@ -4648,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:127">
@@ -4904,7 +4943,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="13">
         <v>30</v>
@@ -4916,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="13">
         <v>30</v>
@@ -4928,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="13">
         <v>30</v>
@@ -4940,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X9" s="13">
         <v>30</v>
@@ -4952,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE9" s="13">
         <v>30</v>
@@ -4964,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL9" s="13">
         <v>30</v>
@@ -4976,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS9" s="13">
         <v>30</v>
@@ -4988,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ9" s="13">
         <v>30</v>
@@ -5000,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BG9" s="13">
         <v>30</v>
@@ -5012,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN9" s="27">
         <v>30</v>
@@ -5027,7 +5066,7 @@
       </c>
       <c r="BS9" s="25"/>
       <c r="BT9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BU9" s="27">
         <v>30</v>
@@ -5042,7 +5081,7 @@
       </c>
       <c r="BZ9" s="25"/>
       <c r="CA9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CB9" s="27">
         <v>30</v>
@@ -5057,7 +5096,7 @@
       </c>
       <c r="CG9" s="25"/>
       <c r="CH9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CI9" s="27">
         <v>30</v>
@@ -5072,7 +5111,7 @@
       </c>
       <c r="CN9" s="25"/>
       <c r="CO9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CP9" s="27">
         <v>30</v>
@@ -5087,7 +5126,7 @@
       </c>
       <c r="CU9" s="25"/>
       <c r="CV9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CW9" s="27">
         <v>30</v>
@@ -5102,7 +5141,7 @@
       </c>
       <c r="DB9" s="25"/>
       <c r="DC9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DD9" s="27">
         <v>30</v>
@@ -5117,7 +5156,7 @@
       </c>
       <c r="DI9" s="25"/>
       <c r="DJ9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DK9" s="27">
         <v>30</v>
@@ -5132,7 +5171,7 @@
       </c>
       <c r="DP9" s="25"/>
       <c r="DQ9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DR9" s="27">
         <v>30</v>
@@ -5152,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="13">
         <v>30</v>
@@ -5164,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="13">
         <v>30</v>
@@ -5176,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="13">
         <v>30</v>
@@ -5188,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" s="13">
         <v>30</v>
@@ -5200,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE10" s="13">
         <v>30</v>
@@ -5212,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" s="13">
         <v>30</v>
@@ -5224,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AS10" s="13">
         <v>30</v>
@@ -5236,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ10" s="13">
         <v>30</v>
@@ -5248,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BG10" s="13">
         <v>30</v>
@@ -5260,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BN10" s="27">
         <v>30</v>
@@ -5275,7 +5314,7 @@
       </c>
       <c r="BS10" s="25"/>
       <c r="BT10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU10" s="27">
         <v>30</v>
@@ -5290,7 +5329,7 @@
       </c>
       <c r="BZ10" s="25"/>
       <c r="CA10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CB10" s="27">
         <v>30</v>
@@ -5305,7 +5344,7 @@
       </c>
       <c r="CG10" s="25"/>
       <c r="CH10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CI10" s="27">
         <v>30</v>
@@ -5320,7 +5359,7 @@
       </c>
       <c r="CN10" s="25"/>
       <c r="CO10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CP10" s="27">
         <v>30</v>
@@ -5335,7 +5374,7 @@
       </c>
       <c r="CU10" s="25"/>
       <c r="CV10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CW10" s="27">
         <v>30</v>
@@ -5350,7 +5389,7 @@
       </c>
       <c r="DB10" s="25"/>
       <c r="DC10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DD10" s="27">
         <v>30</v>
@@ -5365,7 +5404,7 @@
       </c>
       <c r="DI10" s="25"/>
       <c r="DJ10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DK10" s="27">
         <v>30</v>
@@ -5380,7 +5419,7 @@
       </c>
       <c r="DP10" s="25"/>
       <c r="DQ10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="DR10" s="27">
         <v>30</v>
@@ -5400,7 +5439,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="13">
         <v>30</v>
@@ -5412,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="13">
         <v>30</v>
@@ -5424,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="13">
         <v>30</v>
@@ -5436,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X11" s="13">
         <v>30</v>
@@ -5448,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE11" s="13">
         <v>30</v>
@@ -5460,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL11" s="13">
         <v>30</v>
@@ -5472,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS11" s="13">
         <v>30</v>
@@ -5484,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AZ11" s="13">
         <v>30</v>
@@ -5496,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BG11" s="13">
         <v>30</v>
@@ -5508,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BN11" s="27">
         <v>30</v>
@@ -5523,7 +5562,7 @@
       </c>
       <c r="BS11" s="25"/>
       <c r="BT11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BU11" s="27">
         <v>30</v>
@@ -5538,7 +5577,7 @@
       </c>
       <c r="BZ11" s="25"/>
       <c r="CA11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CB11" s="27">
         <v>30</v>
@@ -5553,7 +5592,7 @@
       </c>
       <c r="CG11" s="25"/>
       <c r="CH11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CI11" s="27">
         <v>30</v>
@@ -5568,7 +5607,7 @@
       </c>
       <c r="CN11" s="25"/>
       <c r="CO11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CP11" s="27">
         <v>30</v>
@@ -5583,7 +5622,7 @@
       </c>
       <c r="CU11" s="25"/>
       <c r="CV11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CW11" s="27">
         <v>30</v>
@@ -5598,7 +5637,7 @@
       </c>
       <c r="DB11" s="25"/>
       <c r="DC11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DD11" s="27">
         <v>30</v>
@@ -5613,7 +5652,7 @@
       </c>
       <c r="DI11" s="25"/>
       <c r="DJ11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DK11" s="27">
         <v>30</v>
@@ -5628,7 +5667,7 @@
       </c>
       <c r="DP11" s="25"/>
       <c r="DQ11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DR11" s="27">
         <v>30</v>
@@ -5648,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13">
         <v>30</v>
@@ -5660,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="13">
         <v>30</v>
@@ -5672,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="13">
         <v>30</v>
@@ -5684,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X12" s="13">
         <v>30</v>
@@ -5696,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE12" s="13">
         <v>30</v>
@@ -5708,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL12" s="13">
         <v>30</v>
@@ -5720,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS12" s="13">
         <v>30</v>
@@ -5732,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AZ12" s="13">
         <v>30</v>
@@ -5744,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BG12" s="13">
         <v>30</v>
@@ -5756,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BN12" s="27">
         <v>30</v>
@@ -5771,7 +5810,7 @@
       </c>
       <c r="BS12" s="25"/>
       <c r="BT12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BU12" s="27">
         <v>30</v>
@@ -5786,7 +5825,7 @@
       </c>
       <c r="BZ12" s="25"/>
       <c r="CA12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CB12" s="27">
         <v>30</v>
@@ -5801,7 +5840,7 @@
       </c>
       <c r="CG12" s="25"/>
       <c r="CH12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CI12" s="27">
         <v>30</v>
@@ -5816,7 +5855,7 @@
       </c>
       <c r="CN12" s="25"/>
       <c r="CO12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CP12" s="27">
         <v>30</v>
@@ -5831,7 +5870,7 @@
       </c>
       <c r="CU12" s="25"/>
       <c r="CV12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CW12" s="27">
         <v>30</v>
@@ -5846,7 +5885,7 @@
       </c>
       <c r="DB12" s="25"/>
       <c r="DC12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DD12" s="27">
         <v>30</v>
@@ -5861,7 +5900,7 @@
       </c>
       <c r="DI12" s="25"/>
       <c r="DJ12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DK12" s="27">
         <v>30</v>
@@ -5876,7 +5915,7 @@
       </c>
       <c r="DP12" s="25"/>
       <c r="DQ12" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DR12" s="27">
         <v>30</v>
@@ -5900,7 +5939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
@@ -5908,7 +5947,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -5917,623 +5956,623 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -55463,7 +55502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -55471,7 +55510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
